--- a/Escrita/exemplo simples.xlsx
+++ b/Escrita/exemplo simples.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Estudos\TCC\git\Escrita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CD8792-7A97-4CBE-B87E-E2BFB90F01D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82854DFF-4A38-4423-A04D-2789CF1BCFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MET" sheetId="1" r:id="rId1"/>
+    <sheet name="MCT" sheetId="2" r:id="rId2"/>
+    <sheet name="MinMin" sheetId="3" r:id="rId3"/>
+    <sheet name="MaxMin (2)" sheetId="8" r:id="rId4"/>
+    <sheet name="Xsuffrage" sheetId="5" r:id="rId5"/>
+    <sheet name="OLB" sheetId="6" r:id="rId6"/>
+    <sheet name="MinMean" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>Time</t>
   </si>
@@ -48,61 +54,63 @@
 }</t>
   </si>
   <si>
+    <t>Task 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">maquina = 1
-1275 &lt; Infinito:
-tempoMinimo = 1275
+125 &lt; Infinito:
+tempoMinimo = 125
 maquinaEscolhida = 1 </t>
   </si>
   <si>
     <t>maquina = 2
-2575 &gt; 1275</t>
+130 &gt; 125</t>
   </si>
   <si>
     <t>maquina = 3
-2800 &gt; 1275</t>
-  </si>
-  <si>
-    <t>Task 2</t>
+115 &lt; 125:
+tempoMinimo = 1
+maquinaEscolhida = 3</t>
   </si>
   <si>
     <t xml:space="preserve">maquina = 1
-3100 &lt; Infinito:
-tempoMinimo = 3100
+31 &lt; Infinito:
+tempoMinimo = 31
 maquinaEscolhida = 1 </t>
   </si>
   <si>
     <t>maquina = 2
-1000 &lt; 3100:
-tempoMinimo = 1000
+30 &lt; 31:
+tempoMinimo = 30
 maquinaEscolhida = 2</t>
   </si>
   <si>
     <t>maquina = 3
-900 &lt; 1000:
-tempoMinimo = 900
+29 &lt; 30:
+tempoMinimo = 29
 maquinaEscolhida = 3</t>
   </si>
   <si>
     <t xml:space="preserve">maquina = 1
-4600 &lt; Infinito:
-tempoMinimo = 4600
+46 &lt; Infinito:
+tempoMinimo = 46
 maquinaEscolhida = 1 </t>
   </si>
   <si>
+    <t>maquina = 3
+42 &gt; 35</t>
+  </si>
+  <si>
     <t>maquina = 2
-5000 &gt; 4600:</t>
-  </si>
-  <si>
-    <t>maquina = 3
-4230 &lt; 4600:
-tempoMinimo = 4230
-maquinaEscolhida = 3</t>
+35 &lt; 46:
+tempoMinimo = 35
+maquinaEscolhida = 2</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">makespan(maior mat):
-mat[1] = 1275
-mat[2] = 0
+mat[1] = 0
+mat[2] = 35
 </t>
     </r>
     <r>
@@ -113,15 +121,498 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mat[3] = 900+4230</t>
+      <t>mat[3] = 115+29 = 144</t>
     </r>
+  </si>
+  <si>
+    <t>MCT</t>
+  </si>
+  <si>
+    <t>máquinaEscolhida = 0
+para tarefa em tarefas{
+    tempoMinimo = Integer.MAX_VALUE
+    para máquina em máquinas{
+        se (etc[tarefa][maquina] + mat[maquina] &lt; tempoMinimo){
+            tempoMinimo = etc[tarefa][maquina] +mat[máquina]
+            maquinaEscolhida = maquina
+        }
+    }
+    atribuir tarefa para máquinaEscolhida
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maquina = 1
+40 &lt; Infinito:
+tempoMinimo = 40
+maquinaEscolhida = 1 </t>
+  </si>
+  <si>
+    <t>maquina = 2
+30 &lt; 40:
+tempoMinimo = 30
+maquinaEscolhida = 2</t>
+  </si>
+  <si>
+    <t>maquina = 3
+20+115 &gt; 30:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maquina = 1
+50 &lt; Infinito:
+tempoMinimo = 50
+maquinaEscolhida = 1 </t>
+  </si>
+  <si>
+    <t>MinMiN</t>
+  </si>
+  <si>
+    <t>Faça{
+    máquinaEscolhida = 0
+    tarefaEscolhida = 0
+    tempoMinimo = Integer.MAX_VALUE
+    para tarefa em tarefas{
+        se(foiRemovida[tarefa])
+            continue para a próxima iteração
+        para máquina em máquinas{
+            se (etc[tarefa][maquina] + mat[maquina] &lt; tempoMinimo){
+                tempoMinimo = etc[tarefa][maquina] + mat[máquina]
+                maquinaEscolhida = maquina
+                tarefaEscolhida = tarefa
+            }
+        }
+    }
+    atribuir tarefaEscolhida para máquinaEscolhida
+    foiRemovida[tarefaEscolhida]
+}Enquanto(houver tarefas não atribuidas)</t>
+  </si>
+  <si>
+    <t>40 &lt; 115:
+tempoMinimo = 40
+maquinaEscolhida = 1
+tarefaEscolhida = 2</t>
+  </si>
+  <si>
+    <t>125 &lt; Infinito:
+tempoMinimo = 125
+maquinaEscolhida = 1
+tarefaEscolhida = 1</t>
+  </si>
+  <si>
+    <t>30 &lt; 40:
+tempoMinimo = 30
+maquinaEscolhida = 2
+tarefaEscolhida = 2</t>
+  </si>
+  <si>
+    <t>20 &lt; 30:
+tempoMinimo = 20
+maquinaEscolhida = 3
+tarefaEscolhida = 2</t>
+  </si>
+  <si>
+    <t>13 &lt; 20:
+tempoMinimo = 13
+maquinaEscolhida = 2
+tarefaEscolhida = 3</t>
+  </si>
+  <si>
+    <t>10 &lt; 13:
+tempoMinimo = 10
+maquinaEscolhida = 3
+tarefaEscolhida = 3</t>
+  </si>
+  <si>
+    <t>40 &lt; 125:
+tempoMinimo = 40
+maquinaEscolhida = 1
+tarefaEscolhida = 2</t>
+  </si>
+  <si>
+    <t>115 &lt; 125:
+tempoMinimo = 115
+maquinaEscolhida = 3
+tarefaEscolhida = 1</t>
+  </si>
+  <si>
+    <t>MaxMin</t>
+  </si>
+  <si>
+    <t>40 &lt; Infinito:
+tempoMinimo = 40
+maquinaEscolhida = 1
+tarefaEscolhida = 2</t>
+  </si>
+  <si>
+    <t>13 &lt; 50:
+tempoMinimo = 13
+maquinaEscolhida = 2
+tarefaEscolhida = 3</t>
+  </si>
+  <si>
+    <t>50 &lt; Infinito:
+tempoMinimo = 50
+maquinaEscolhida = 1
+tarefaEscolhida = 3</t>
+  </si>
+  <si>
+    <t>Task 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">makespan(maior mat):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mat[1] = 125</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mat[2] = 30
+mat[3] = 10</t>
+    </r>
+  </si>
+  <si>
+    <t>30-20 == 10</t>
+  </si>
+  <si>
+    <t>13-10 &lt; 10</t>
+  </si>
+  <si>
+    <t>125-115 &gt; Infinito neg:
+suffrageMax = 10
+tarefa Escolhida = 1
+maquina escolhida = 3</t>
+  </si>
+  <si>
+    <t>100 - 50 &gt; 10
+suffrageMax = 50
+tarefa Escolhida = 4
+maquina escolhida = 3</t>
+  </si>
+  <si>
+    <t>Primeira iteração</t>
+  </si>
+  <si>
+    <t>Segunda</t>
+  </si>
+  <si>
+    <t>130-125 &gt; Infinito neg:
+suffrageMax = 5
+tarefa Escolhida = 1
+maquina escolhida = 2</t>
+  </si>
+  <si>
+    <t>40-30 &gt; 5:
+suffrageMax = 10
+tarefa Escolhida = 2
+maquina escolhida = 2</t>
+  </si>
+  <si>
+    <t>50-13 &gt; 10:
+suffrageMax = 37
+tarefa Escolhida = 3
+maquina escolhida = 2</t>
+  </si>
+  <si>
+    <t>143 -125 &gt; Infinito neg:
+suffrageMax = 18
+tarefa Escolhida = 1
+maquina escolhida = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 - 40 &lt; 18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+</t>
+  </si>
+  <si>
+    <t>70 -43 &gt; Infinito neg:
+suffrageMax = 27
+tarefa Escolhida = 2
+maquina escolhida = 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">makespan(maior mat):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mat[1] = 125</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mat[2] = 13+43
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mat[3] = 50</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">125 &lt; Infinito:
+</t>
+  </si>
+  <si>
+    <t>0 &lt; infinito
+Task:1
+Máquina:1</t>
+  </si>
+  <si>
+    <t>0 &lt; 125
+Task:2
+Máquina:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30&lt;125
+</t>
+  </si>
+  <si>
+    <t>0 &lt; 30
+Task:3
+Máquina:3</t>
+  </si>
+  <si>
+    <t>OLB</t>
+  </si>
+  <si>
+    <t>terceira</t>
+  </si>
+  <si>
+    <t>quarta</t>
+  </si>
+  <si>
+    <t>xsuffrage</t>
+  </si>
+  <si>
+    <t>MinMean</t>
+  </si>
+  <si>
+    <t>Resultado MinMin</t>
+  </si>
+  <si>
+    <t>50+10 &lt; 100+30:
+tempoMinimo = 50
+maquinaEscolhida = 3
+tarefaEscolhida = 4</t>
+  </si>
+  <si>
+    <t>50+30 &lt; 125 &lt; 115+60
+tempoMinimo = 50
+maquinaEscolhida = 2
+tarefaEscolhida = 1</t>
+  </si>
+  <si>
+    <t>MinMin</t>
+  </si>
+  <si>
+    <t>Máquina 1: 0
+Máquina 2: 30+50
+Máquina 3: 10+50
+makespan: 80
+média arredondada: 46</t>
+  </si>
+  <si>
+    <t>80 &gt; média(46)
+para cada maquinaCandidata
+0 - 40 &lt; média(46):
+tempoMinimo = 30
+maquinaEscolhida = 1
+tarefaEscolhida = 2</t>
+  </si>
+  <si>
+    <t>200 &lt; Infinito:
+tempoMinimo = 200
+maquinaEscolhida = 1
+tarefaEscolhida = 3</t>
+  </si>
+  <si>
+    <t>100 &lt; 200:
+tempoMinimo = 100
+maquinaEscolhida = 2
+tarefaEscolhida = 3</t>
+  </si>
+  <si>
+    <t>50 &lt; 100:
+tempoMinimo = 50
+maquinaEscolhida = 3
+tarefaEscolhida = 3</t>
+  </si>
+  <si>
+    <t>50 &lt; 125:
+tempoMinimo = 50
+maquinaEscolhida = 2
+tarefaEscolhida = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50+30 &gt; 40:
+</t>
+  </si>
+  <si>
+    <t>20  &lt; 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 + 50 &gt; 50
+</t>
+  </si>
+  <si>
+    <t>10  &lt; 13
+tempoMinimo = 10
+maquinaEscolhida = 3
+tarefaEscolhida = 3</t>
+  </si>
+  <si>
+    <t>100+50 &lt; 200:
+tempoMinimo = 150
+maquinaEscolhida = 2
+tarefaEscolhida = 3</t>
+  </si>
+  <si>
+    <t>50 &lt; 150:
+tempoMinimo = 50
+maquinaEscolhida = 3
+tarefaEscolhida = 3</t>
+  </si>
+  <si>
+    <t>50+20 &gt; 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50+10 &gt; 50
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50+30 &lt; 90:
+</t>
+  </si>
+  <si>
+    <t>50+20 &gt; 80
+tempoMinimo = 70
+maquinaEscolhida = 3
+tarefaEscolhida = 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">makespan(maior mat):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mat[1] = 50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mat[2] = 50
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mat[3] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50+20</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>maquina = 2
+13+30 &lt; 50:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">makespan(maior mat):
+mat[1] = 0
+mat[2] = 30+13
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mat[3] = 115</t>
+    </r>
+  </si>
+  <si>
+    <t>maquina = 3
+10+115 &gt; 43</t>
+  </si>
+  <si>
+    <t>40+50 &lt; Infinito:
+tempoMinimo = 90
+maquinaEscolhida = 1
+tarefaEscolhida = 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +639,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +676,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -259,11 +767,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -277,84 +803,256 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,8 +1061,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFA4D5FE"/>
       <color rgb="FFCCCCFF"/>
-      <color rgb="FFA4D5FE"/>
+      <color rgb="FFFF99FF"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FF9999FF"/>
     </mruColors>
@@ -646,228 +1346,2005 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="20" width="7.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>125</v>
+      </c>
+      <c r="D2" s="10">
+        <v>130</v>
+      </c>
+      <c r="E2" s="4">
+        <v>115</v>
+      </c>
+      <c r="F2" s="11">
+        <v>31</v>
+      </c>
+      <c r="G2" s="11">
+        <v>30</v>
+      </c>
+      <c r="H2" s="8">
+        <v>29</v>
+      </c>
+      <c r="I2" s="12">
+        <v>46</v>
+      </c>
+      <c r="J2" s="6">
+        <v>35</v>
+      </c>
+      <c r="K2" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31">
+        <v>2</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="37">
+        <v>3</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="H6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+    </row>
+    <row r="9" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+    </row>
+    <row r="10" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D6FD59-88DA-4718-98C8-F0C5EFC5C7D0}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
-        <v>1275</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2575</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2800</v>
-      </c>
-      <c r="F2" s="18">
-        <v>3100</v>
-      </c>
-      <c r="G2" s="18">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="19">
-        <v>900</v>
-      </c>
-      <c r="I2" s="11">
-        <v>4600</v>
-      </c>
-      <c r="J2" s="11">
-        <v>5000</v>
+      <c r="C2" s="10">
+        <v>125</v>
+      </c>
+      <c r="D2" s="10">
+        <v>130</v>
+      </c>
+      <c r="E2" s="4">
+        <v>115</v>
+      </c>
+      <c r="F2" s="11">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12">
+        <v>50</v>
+      </c>
+      <c r="J2" s="12">
+        <v>13</v>
       </c>
       <c r="K2" s="12">
-        <v>4230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="20">
-        <v>1</v>
-      </c>
-      <c r="G3" s="20">
-        <v>2</v>
-      </c>
-      <c r="H3" s="21">
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
         <v>3</v>
       </c>
-      <c r="I3" s="13">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13">
-        <v>2</v>
-      </c>
-      <c r="K3" s="14">
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
+      </c>
+      <c r="K3" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="22">
-        <v>2</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="15">
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31">
+        <v>2</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="37">
         <v>3</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="6" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="H6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="I8" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+    </row>
+    <row r="9" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="48"/>
+    </row>
+    <row r="10" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-    </row>
-    <row r="18" spans="2:6" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B6:F6"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F12A8F-3259-4BCA-94C7-9C1A9F10D096}">
+  <sheetPr>
+    <tabColor rgb="FFCCCCFF"/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>125</v>
+      </c>
+      <c r="D2" s="10">
+        <v>130</v>
+      </c>
+      <c r="E2" s="10">
+        <v>115</v>
+      </c>
+      <c r="F2" s="11">
+        <v>40</v>
+      </c>
+      <c r="G2" s="11">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12">
+        <v>50</v>
+      </c>
+      <c r="J2" s="12">
+        <v>13</v>
+      </c>
+      <c r="K2" s="12">
+        <v>10</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
+      </c>
+      <c r="K3" s="15">
+        <v>3</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31">
+        <v>2</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="37">
+        <v>3</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+    </row>
+    <row r="8" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+    </row>
+    <row r="10" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+    </row>
+    <row r="11" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+    </row>
+    <row r="12" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+    </row>
+    <row r="13" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" ht="350.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="M2:O4"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D7A754-96EE-4CBD-915B-3160919C2B61}">
+  <sheetPr>
+    <tabColor rgb="FFFF99FF"/>
+  </sheetPr>
+  <dimension ref="A1:Z17"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>125</v>
+      </c>
+      <c r="D2" s="10">
+        <v>50</v>
+      </c>
+      <c r="E2" s="10">
+        <v>115</v>
+      </c>
+      <c r="F2" s="11">
+        <v>40</v>
+      </c>
+      <c r="G2" s="11">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12">
+        <v>50</v>
+      </c>
+      <c r="J2" s="12">
+        <v>13</v>
+      </c>
+      <c r="K2" s="12">
+        <v>10</v>
+      </c>
+      <c r="L2" s="23">
+        <v>200</v>
+      </c>
+      <c r="M2" s="23">
+        <v>100</v>
+      </c>
+      <c r="N2" s="23">
+        <v>50</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+    </row>
+    <row r="3" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
+      </c>
+      <c r="K3" s="15">
+        <v>3</v>
+      </c>
+      <c r="L3" s="24">
+        <v>1</v>
+      </c>
+      <c r="M3" s="24">
+        <v>2</v>
+      </c>
+      <c r="N3" s="24">
+        <v>3</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+    </row>
+    <row r="4" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31">
+        <v>2</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="37">
+        <v>3</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="73">
+        <v>4</v>
+      </c>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+    </row>
+    <row r="5" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:26" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="51"/>
+      <c r="V7" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="51"/>
+    </row>
+    <row r="8" spans="1:26" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="V8" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+    </row>
+    <row r="9" spans="1:26" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="V9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+    </row>
+    <row r="10" spans="1:26" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+    </row>
+    <row r="11" spans="1:26" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="I11" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="P11" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="48"/>
+    </row>
+    <row r="12" spans="1:26" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="I12" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
+      <c r="P12" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="48"/>
+    </row>
+    <row r="13" spans="1:26" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="I13" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="1:26" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="I14" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+    </row>
+    <row r="15" spans="1:26" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="I15" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+    </row>
+    <row r="16" spans="1:26" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+    </row>
+    <row r="17" spans="2:6" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="P2:R4"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="T2:V4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="P7:T7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648EAA8A-15FD-46F6-8060-0BAB2C2A5928}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>125</v>
+      </c>
+      <c r="D2" s="10">
+        <v>130</v>
+      </c>
+      <c r="E2" s="10">
+        <v>115</v>
+      </c>
+      <c r="F2" s="11">
+        <v>40</v>
+      </c>
+      <c r="G2" s="11">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12">
+        <v>50</v>
+      </c>
+      <c r="J2" s="12">
+        <v>13</v>
+      </c>
+      <c r="K2" s="12">
+        <v>10</v>
+      </c>
+      <c r="L2" s="23">
+        <v>200</v>
+      </c>
+      <c r="M2" s="23">
+        <v>100</v>
+      </c>
+      <c r="N2" s="23">
+        <v>50</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+    </row>
+    <row r="3" spans="1:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
+      </c>
+      <c r="K3" s="15">
+        <v>3</v>
+      </c>
+      <c r="L3" s="24">
+        <v>1</v>
+      </c>
+      <c r="M3" s="24">
+        <v>2</v>
+      </c>
+      <c r="N3" s="24">
+        <v>3</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+    </row>
+    <row r="4" spans="1:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31">
+        <v>2</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="37">
+        <v>3</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="73">
+        <v>4</v>
+      </c>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+    </row>
+    <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:27" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="80"/>
+      <c r="V7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="84"/>
+    </row>
+    <row r="8" spans="1:27" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="51"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="51"/>
+    </row>
+    <row r="9" spans="1:27" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="48"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="48"/>
+    </row>
+    <row r="10" spans="1:27" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+    </row>
+    <row r="11" spans="1:27" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+    </row>
+    <row r="12" spans="1:27" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+    </row>
+    <row r="13" spans="1:27" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="P2:R4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="P9:T9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6AEC3B-82DD-4C93-A17E-EAF4ED341C70}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>125</v>
+      </c>
+      <c r="D2" s="10">
+        <v>130</v>
+      </c>
+      <c r="E2" s="10">
+        <v>115</v>
+      </c>
+      <c r="F2" s="11">
+        <v>40</v>
+      </c>
+      <c r="G2" s="11">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12">
+        <v>50</v>
+      </c>
+      <c r="J2" s="12">
+        <v>13</v>
+      </c>
+      <c r="K2" s="12">
+        <v>10</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
+      </c>
+      <c r="K3" s="15">
+        <v>3</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31">
+        <v>2</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="37">
+        <v>3</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="48"/>
+    </row>
+    <row r="8" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+    </row>
+    <row r="9" spans="1:20" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M2:O4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2496ADDB-484E-4252-A6E1-156ACEE01708}">
+  <sheetPr>
+    <tabColor rgb="FFFF7C80"/>
+  </sheetPr>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>125</v>
+      </c>
+      <c r="D2" s="10">
+        <v>50</v>
+      </c>
+      <c r="E2" s="10">
+        <v>115</v>
+      </c>
+      <c r="F2" s="11">
+        <v>40</v>
+      </c>
+      <c r="G2" s="11">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12">
+        <v>50</v>
+      </c>
+      <c r="J2" s="12">
+        <v>13</v>
+      </c>
+      <c r="K2" s="12">
+        <v>10</v>
+      </c>
+      <c r="L2" s="23">
+        <v>200</v>
+      </c>
+      <c r="M2" s="23">
+        <v>100</v>
+      </c>
+      <c r="N2" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
+      </c>
+      <c r="K3" s="15">
+        <v>3</v>
+      </c>
+      <c r="L3" s="24">
+        <v>1</v>
+      </c>
+      <c r="M3" s="24">
+        <v>2</v>
+      </c>
+      <c r="N3" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31">
+        <v>2</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="37">
+        <v>3</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="73">
+        <v>4</v>
+      </c>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
+    </row>
+    <row r="7" spans="1:15" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="H8" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+    </row>
+    <row r="9" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+    </row>
+    <row r="10" spans="1:15" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:15" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="K7:O9"/>
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>